--- a/Test/Data/Data.xlsx
+++ b/Test/Data/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="67">
   <si>
     <t>userName</t>
   </si>
@@ -128,19 +128,101 @@
     <t>userLogin</t>
   </si>
   <si>
+    <t>asadi</t>
+  </si>
+  <si>
+    <t>transcriptSearchReciver</t>
+  </si>
+  <si>
+    <t>transcriptSearchResult</t>
+  </si>
+  <si>
+    <t>جهت بررسی</t>
+  </si>
+  <si>
+    <t>زهرا  نيك نام مديراداري، مدير سيستم مدير سازمان الكترونيك پيوست</t>
+  </si>
+  <si>
+    <t>نیک</t>
+  </si>
+  <si>
+    <t>niknam</t>
+  </si>
+  <si>
+    <t>جهت اقدام</t>
+  </si>
+  <si>
+    <t>زهرا  نيك نام مديراداري</t>
+  </si>
+  <si>
+    <t>‫درخواست تهيه گزارش ماهانه سود و زيان</t>
+  </si>
+  <si>
+    <t>فوری</t>
+  </si>
+  <si>
+    <t>آنی</t>
+  </si>
+  <si>
+    <t>جهت استحضار</t>
+  </si>
+  <si>
+    <t>testtranscript2</t>
+  </si>
+  <si>
+    <t>transcriptSearchReciver2</t>
+  </si>
+  <si>
+    <t>transcriptSearchResult2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هادي ميرزاپور مسئول خريد داخلي،راحله  رزاقيان مسئول دفتر مدير عامل
+</t>
+  </si>
+  <si>
+    <t>readyText</t>
+  </si>
+  <si>
+    <t>ارسال گزارش سپرده قانونی ماهانه بانک مرکزی</t>
+  </si>
+  <si>
+    <t>عادی</t>
+  </si>
+  <si>
+    <t>جهت تعیین نظر</t>
+  </si>
+  <si>
+    <t>جهت اعلام نظر</t>
+  </si>
+  <si>
+    <t>بررسی گزارش سپرده قانونی</t>
+  </si>
+  <si>
+    <t>تعیین گزارش سپرده اعلامی</t>
+  </si>
+  <si>
+    <t>زار</t>
+  </si>
+  <si>
+    <t>حسن  زارعيان انباردار،پرويز اعلمي كارشناس نرم افزار،كيوان  مرتضوي كارشناس سخت افزار</t>
+  </si>
+  <si>
+    <t>userLoginCheckReciver</t>
+  </si>
+  <si>
+    <t>حسن  زارعيان انباردار</t>
+  </si>
+  <si>
     <t>rahimi</t>
   </si>
   <si>
-    <t>asadi</t>
-  </si>
-  <si>
-    <t>transcriptSearchReciver</t>
-  </si>
-  <si>
-    <t>transcriptSearchResult</t>
-  </si>
-  <si>
-    <t>جهت بررسی</t>
+    <t>userLoginCheckTranscript</t>
+  </si>
+  <si>
+    <t>userLoginCheckTranscipt2</t>
+  </si>
+  <si>
+    <t>zareian</t>
   </si>
 </sst>
 </file>
@@ -465,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,9 +601,33 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -532,164 +638,484 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31" style="2" customWidth="1"/>
-    <col min="5" max="7" width="24.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="13" width="24.28515625" customWidth="1"/>
-    <col min="14" max="15" width="31" style="2" customWidth="1"/>
+    <col min="2" max="3" width="26.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31" style="2" customWidth="1"/>
+    <col min="7" max="11" width="24.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" customWidth="1"/>
+    <col min="17" max="18" width="31" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" customWidth="1"/>
+    <col min="20" max="20" width="25.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="S2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="T2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
+      <c r="T3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="U3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>2</v>
+      <c r="U5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Test/Data/Data.xlsx
+++ b/Test/Data/Data.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5415" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginSuccess" sheetId="1" r:id="rId1"/>
     <sheet name="Memorandom" sheetId="2" r:id="rId2"/>
+    <sheet name="UserSetting" sheetId="5" r:id="rId3"/>
+    <sheet name="ObjectPiker" sheetId="3" r:id="rId4"/>
+    <sheet name="ReadyText" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="133">
   <si>
     <t>userName</t>
   </si>
@@ -170,22 +173,10 @@
     <t>testtranscript2</t>
   </si>
   <si>
-    <t>transcriptSearchReciver2</t>
-  </si>
-  <si>
-    <t>transcriptSearchResult2</t>
-  </si>
-  <si>
     <t xml:space="preserve">هادي ميرزاپور مسئول خريد داخلي،راحله  رزاقيان مسئول دفتر مدير عامل
 </t>
   </si>
   <si>
-    <t>readyText</t>
-  </si>
-  <si>
-    <t>ارسال گزارش سپرده قانونی ماهانه بانک مرکزی</t>
-  </si>
-  <si>
     <t>عادی</t>
   </si>
   <si>
@@ -195,34 +186,245 @@
     <t>جهت اعلام نظر</t>
   </si>
   <si>
-    <t>بررسی گزارش سپرده قانونی</t>
-  </si>
-  <si>
-    <t>تعیین گزارش سپرده اعلامی</t>
-  </si>
-  <si>
     <t>زار</t>
   </si>
   <si>
     <t>حسن  زارعيان انباردار،پرويز اعلمي كارشناس نرم افزار،كيوان  مرتضوي كارشناس سخت افزار</t>
   </si>
   <si>
-    <t>userLoginCheckReciver</t>
-  </si>
-  <si>
     <t>حسن  زارعيان انباردار</t>
   </si>
   <si>
     <t>rahimi</t>
   </si>
   <si>
-    <t>userLoginCheckTranscript</t>
-  </si>
-  <si>
-    <t>userLoginCheckTranscipt2</t>
-  </si>
-  <si>
     <t>zareian</t>
+  </si>
+  <si>
+    <t>reciverFromChart</t>
+  </si>
+  <si>
+    <t>searchReciverFromChart</t>
+  </si>
+  <si>
+    <t>searchResultReciverFromChart</t>
+  </si>
+  <si>
+    <t>reciverFromPersonelList</t>
+  </si>
+  <si>
+    <t>searchResultReciverFromPersonelList</t>
+  </si>
+  <si>
+    <t>transcriptReciverFromChart</t>
+  </si>
+  <si>
+    <t>searchResultTranscriptReciverFromChart</t>
+  </si>
+  <si>
+    <t>transcriptReciverFromPersonelList</t>
+  </si>
+  <si>
+    <t>searchResultTranscriptReciverFromPersonelList</t>
+  </si>
+  <si>
+    <t>searchTranscriptReciver2</t>
+  </si>
+  <si>
+    <t>searchResultTranscriptReciver2</t>
+  </si>
+  <si>
+    <t>transcriptReciver2FromChart</t>
+  </si>
+  <si>
+    <t>searchTranscriptReciver2FromChart</t>
+  </si>
+  <si>
+    <t>searchResultTranscriptReciver2FromChart</t>
+  </si>
+  <si>
+    <t>transcriptReciver2FromPersonelList</t>
+  </si>
+  <si>
+    <t>searchResultTranscriptReciver2FromPersonelList</t>
+  </si>
+  <si>
+    <t>searchTranscriptReciverFromChart</t>
+  </si>
+  <si>
+    <t>هادي ميرزاپور مسئول خريد داخلي،راحله  رزاقيان مسئول دفتر مدير عامل</t>
+  </si>
+  <si>
+    <t>رضا</t>
+  </si>
+  <si>
+    <t>محمد  رضايي رئيس هيئت مديره</t>
+  </si>
+  <si>
+    <t>محمدرضا كوثري مسئول دفتر اداري،عليرضا  لطفي انتظامات،رضا  احمدي مديرعامل،محمد  رضايي رئيس هيئت مديره</t>
+  </si>
+  <si>
+    <t>قدیر</t>
+  </si>
+  <si>
+    <t>نيما قديري مدير انفورماتيك</t>
+  </si>
+  <si>
+    <t>محم</t>
+  </si>
+  <si>
+    <t>محمدرضا كوثري مسئول دفتر اداري</t>
+  </si>
+  <si>
+    <t>محمدرضا كوثري مسئول دفتر اداري،محمد  رضايي رئيس هيئت مديره</t>
+  </si>
+  <si>
+    <t>ناصر</t>
+  </si>
+  <si>
+    <t>عباس ناصريان كنترل كيفيت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عباس ناصريان كنترل كيفيت
+</t>
+  </si>
+  <si>
+    <t>سعاد</t>
+  </si>
+  <si>
+    <t>غلامحسين سعادتي مسئول توليد</t>
+  </si>
+  <si>
+    <t>رضا  احمدي مديرعامل</t>
+  </si>
+  <si>
+    <t>رضا  احمدي مديرعامل،عليرضا  لطفي انتظامات،حسين  عليزاده مسئول بسته بندي</t>
+  </si>
+  <si>
+    <t>عليرضا  لطفي انتظامات</t>
+  </si>
+  <si>
+    <t>داريوش مهدوي كارشناس فروش</t>
+  </si>
+  <si>
+    <t>كيوان  مرتضوي كارشناس سخت افزار،پرويز اعلمي كارشناس نرم افزار،نيما قديري مدير انفورماتيك</t>
+  </si>
+  <si>
+    <t>محمدرضا كوثري مسئول دفتر اداري.</t>
+  </si>
+  <si>
+    <t>حسين  عليزاده مسئول بسته بندي</t>
+  </si>
+  <si>
+    <t>كيوان  مرتضوي كارشناس سخت افزار</t>
+  </si>
+  <si>
+    <t>محمدرضا كوثري مسئول دفتر اداري،زهرا  نيك نام مديراداري،عباس ناصريان كنترل كيفيت</t>
+  </si>
+  <si>
+    <t>رضا  احمدي مديرعامل،پرويز اعلمي كارشناس نرم افزار،اكبر  فاطمي مديرمالي</t>
+  </si>
+  <si>
+    <t>پرويز اعلمي كارشناس نرم افزار</t>
+  </si>
+  <si>
+    <t>رضا  احمدي مديرعامل،داريوش مهدوي كارشناس فروش،محمدرضا كوثري مسئول دفتر اداري</t>
+  </si>
+  <si>
+    <t>readyTextTitle</t>
+  </si>
+  <si>
+    <t>readyTestDiscrptionn</t>
+  </si>
+  <si>
+    <t>ارسال گزارش سپرده بانک مرکزی</t>
+  </si>
+  <si>
+    <t>ارسال گزارش سپرده بانک مرکزی به پیوست می‌باشد.</t>
+  </si>
+  <si>
+    <t>گزارش موجودی اقلام مصرفی</t>
+  </si>
+  <si>
+    <t>پیرو جلسه تشکیل شده با بانک ملی گزارش اقلام مصرفی تعیین گردید  و تمامی کارکنان موظف هستند بیشتر از حد تعیین شده در خرانه قرار ندهند.</t>
+  </si>
+  <si>
+    <t>تکمیل موجودی دارایی</t>
+  </si>
+  <si>
+    <t>تکمیل موجودی دارایی باید تا هفته آینده تکمیل گردد.</t>
+  </si>
+  <si>
+    <t>گزارش سپرده داخلی</t>
+  </si>
+  <si>
+    <t>گزارش سپرده داخلی هر مجموعه تا سه روز آینده باید ارسال گردد. با تشکر</t>
+  </si>
+  <si>
+    <t>بررسی امور داخلی کارکنان</t>
+  </si>
+  <si>
+    <t>با توجه به آغاز سال جدید مدیریت هر واحد لازم است  اقداماتی که در هر واحد باید انجام شود را تعیین و در اختیار کارکنان آن واحد قرار دهد.</t>
+  </si>
+  <si>
+    <t>شرکت در جلسه</t>
+  </si>
+  <si>
+    <t>با سلام و احترام، لطفا در جلسه ای که در واحد فنی جهت امور انجام شده در واحد برکزار میشود شرکت کنید.</t>
+  </si>
+  <si>
+    <t>تبریک تولد</t>
+  </si>
+  <si>
+    <t>باسلام و احترام، همکار گرامی گروه بازرگانی تولد شما را صمیمانه تبریک میگوید.</t>
+  </si>
+  <si>
+    <t>fileAttachmentName</t>
+  </si>
+  <si>
+    <t>file.jpg</t>
+  </si>
+  <si>
+    <t>Orders-With Nulls.xlsx</t>
+  </si>
+  <si>
+    <t>Sample-png-image-100kb.png</t>
+  </si>
+  <si>
+    <t>soodozian.jpg</t>
+  </si>
+  <si>
+    <t>soodozianexcel.png</t>
+  </si>
+  <si>
+    <t>income-statement.jpg</t>
+  </si>
+  <si>
+    <t>referralCommands</t>
+  </si>
+  <si>
+    <t>جهت استحضار_جهت اقدام</t>
+  </si>
+  <si>
+    <t>جهت اطلاع_جهت اقدام</t>
+  </si>
+  <si>
+    <t>پيگيري هاي لازم انجام شود._جهت استحضار از روند انجام كار</t>
+  </si>
+  <si>
+    <t>جهت انجام_بررسي شود.</t>
+  </si>
+  <si>
+    <t>جهت اعلام نظر_جهت رسيدگي</t>
+  </si>
+  <si>
+    <t>جهت پيگيري امور_جهت تعيين قيمت</t>
+  </si>
+  <si>
+    <t>پيگيري شود</t>
+  </si>
+  <si>
+    <t>جهت بررسي_جهت استحضار</t>
   </si>
 </sst>
 </file>
@@ -550,7 +752,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +811,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -625,7 +827,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -638,488 +840,895 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="26.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31" style="2" customWidth="1"/>
-    <col min="7" max="11" width="24.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" customWidth="1"/>
-    <col min="16" max="16" width="24.28515625" customWidth="1"/>
-    <col min="17" max="18" width="31" style="2" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" customWidth="1"/>
-    <col min="20" max="20" width="25.28515625" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>52</v>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
+      <c r="C7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="60" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" customWidth="1"/>
+    <col min="10" max="12" width="31" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="35.42578125" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="43.85546875" customWidth="1"/>
+    <col min="18" max="19" width="24.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31.140625" customWidth="1"/>
+    <col min="22" max="22" width="25.28515625" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" customWidth="1"/>
+    <col min="24" max="24" width="28" customWidth="1"/>
+    <col min="25" max="25" width="20.85546875" customWidth="1"/>
+    <col min="26" max="26" width="43.85546875" customWidth="1"/>
+    <col min="27" max="27" width="24.42578125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test/Data/Data.xlsx
+++ b/Test/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5415" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginSuccess" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,11 @@
     <sheet name="UserSetting" sheetId="5" r:id="rId3"/>
     <sheet name="ObjectPiker" sheetId="3" r:id="rId4"/>
     <sheet name="ReadyText" sheetId="4" r:id="rId5"/>
+    <sheet name="فرم اطلاعات پرسنل" sheetId="6" r:id="rId6"/>
+    <sheet name="فرم درخواست مرخصی روزانه" sheetId="10" r:id="rId7"/>
+    <sheet name="عبارات پرکاربرد" sheetId="7" r:id="rId8"/>
+    <sheet name="گروه پست سازمانی و طرف مکاتبه" sheetId="9" r:id="rId9"/>
+    <sheet name="عملیات اتوماتیک، ماکرو" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="215">
   <si>
     <t>userName</t>
   </si>
@@ -47,9 +52,6 @@
   </si>
   <si>
     <t>title</t>
-  </si>
-  <si>
-    <t>discreption</t>
   </si>
   <si>
     <t>reciver</t>
@@ -334,9 +336,6 @@
     <t>readyTextTitle</t>
   </si>
   <si>
-    <t>readyTestDiscrptionn</t>
-  </si>
-  <si>
     <t>ارسال گزارش سپرده بانک مرکزی</t>
   </si>
   <si>
@@ -403,9 +402,6 @@
     <t>referralCommands</t>
   </si>
   <si>
-    <t>جهت استحضار_جهت اقدام</t>
-  </si>
-  <si>
     <t>جهت اطلاع_جهت اقدام</t>
   </si>
   <si>
@@ -425,6 +421,263 @@
   </si>
   <si>
     <t>جهت بررسي_جهت استحضار</t>
+  </si>
+  <si>
+    <t>userLoginReciver</t>
+  </si>
+  <si>
+    <t>userLoginTranscriptReciver</t>
+  </si>
+  <si>
+    <t>userLoginTranscriptReciver2</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>جهت استحضار|جهت اقدام</t>
+  </si>
+  <si>
+    <t>جهت اطلاع</t>
+  </si>
+  <si>
+    <t>جهت پيگيري امور</t>
+  </si>
+  <si>
+    <t>readyTestDescription</t>
+  </si>
+  <si>
+    <t>جهت تعيين قيمت</t>
+  </si>
+  <si>
+    <t>جهت بررسي</t>
+  </si>
+  <si>
+    <t>جهت رسيدگي</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>readyTextDescription</t>
+  </si>
+  <si>
+    <t>karami</t>
+  </si>
+  <si>
+    <t>kosari</t>
+  </si>
+  <si>
+    <t>نام و نام خانوادگی</t>
+  </si>
+  <si>
+    <t>کدپرسنلی</t>
+  </si>
+  <si>
+    <t>سن</t>
+  </si>
+  <si>
+    <t>مرحله شروع</t>
+  </si>
+  <si>
+    <t>بررسی مقادیرفیلدها</t>
+  </si>
+  <si>
+    <t>تاییدمدیر</t>
+  </si>
+  <si>
+    <t>نام کاربری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‫اكبر فاطمي-مدير امور مالي-اداره امور مالي </t>
+  </si>
+  <si>
+    <t>‫‫رضا احمدي-مدير عامل-شركت آبي</t>
+  </si>
+  <si>
+    <t>‫‫حسن زارعيان-بازرس پروژه-واحد برنامه ريزي و كنترل پروژه</t>
+  </si>
+  <si>
+    <t>‫‫زهرا نيكنام-مدير امور اداري-اداره امور پشتيباني و منابع انساني</t>
+  </si>
+  <si>
+    <t>عنوان</t>
+  </si>
+  <si>
+    <t>فرم كاركنان - زارعيان</t>
+  </si>
+  <si>
+    <t>فرم كاركنان - نيكنام</t>
+  </si>
+  <si>
+    <t>فرم كاركنان - فاطمي</t>
+  </si>
+  <si>
+    <t>محمد اسدي</t>
+  </si>
+  <si>
+    <t>احمد محمدي</t>
+  </si>
+  <si>
+    <t>رضاعباسي</t>
+  </si>
+  <si>
+    <t>‫‫راحله رزاقيان-رئيس دفتر مدير عامل-شركت آبي</t>
+  </si>
+  <si>
+    <t>تاریخ تولد</t>
+  </si>
+  <si>
+    <t>کدملی</t>
+  </si>
+  <si>
+    <t>نام پدر</t>
+  </si>
+  <si>
+    <t>تاریخ شروع به کار</t>
+  </si>
+  <si>
+    <t>جنسیت</t>
+  </si>
+  <si>
+    <t>مدرک تحصیلی</t>
+  </si>
+  <si>
+    <t>شماره تماس</t>
+  </si>
+  <si>
+    <t>1370/07/24</t>
+  </si>
+  <si>
+    <t>1366/12/12</t>
+  </si>
+  <si>
+    <t>1359/01/09</t>
+  </si>
+  <si>
+    <t>علی</t>
+  </si>
+  <si>
+    <t>مهدی</t>
+  </si>
+  <si>
+    <t>1400/07/11</t>
+  </si>
+  <si>
+    <t>1398/09/09</t>
+  </si>
+  <si>
+    <t>1401/09/08</t>
+  </si>
+  <si>
+    <t>مرد</t>
+  </si>
+  <si>
+    <t>فوق لیسانس</t>
+  </si>
+  <si>
+    <t>لیسانس</t>
+  </si>
+  <si>
+    <t>دیپلم</t>
+  </si>
+  <si>
+    <t>نام گروه پست سازمانی</t>
+  </si>
+  <si>
+    <t>اعضای گروه پست سازمانی</t>
+  </si>
+  <si>
+    <t>مدیران داخلی</t>
+  </si>
+  <si>
+    <t>اكبر فاطمي مدير امور مالي|زهرا نيكنام مدير امور اداري|</t>
+  </si>
+  <si>
+    <t>اكبر فاطمي مدير امور مالي|نادر ابراهيمي معاون مالي اداري|بهروز نوري مسئول دفتر امور مالي</t>
+  </si>
+  <si>
+    <t>عبارت موردنظر جهت جستجوی پست</t>
+  </si>
+  <si>
+    <t>مدیر</t>
+  </si>
+  <si>
+    <t>نام گروه طرف مکاتبه</t>
+  </si>
+  <si>
+    <t>اعضای گروه طرف مکاتبه</t>
+  </si>
+  <si>
+    <t>عبارت مورد نظر جهت جستجوی طرف مکاتبه</t>
+  </si>
+  <si>
+    <t>مال</t>
+  </si>
+  <si>
+    <t>01 - علي اسدي كارشناس مالي - بانك ملي ايران |01 - محدثه اسدي كارشناس مالي آينده ساز - بانك آينده|01 - بهمن تاج ملكي كارشناس مالي امور بانكداري - بانك تجارت</t>
+  </si>
+  <si>
+    <t>نام و نام خانوادگی اعضای گروه طرف مکاتبه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علي اسدي|محدثه اسدي|بهمن تاج ملكي </t>
+  </si>
+  <si>
+    <t>دستورات ارجاع</t>
+  </si>
+  <si>
+    <t>در اسرع وقت اقدام گردد</t>
+  </si>
+  <si>
+    <t>عبارات اقدام</t>
+  </si>
+  <si>
+    <t>اقدامات لازم انجام شد</t>
+  </si>
+  <si>
+    <t>عنوان متن آماده</t>
+  </si>
+  <si>
+    <t>شرح متن آماده</t>
+  </si>
+  <si>
+    <t>بانک گروه مالی2</t>
+  </si>
+  <si>
+    <t>واحد مال2</t>
+  </si>
+  <si>
+    <t>با سلام و احترام
+کارمند گرامی، ما در گروه نرم افزاری پیوست تولد شما  را صمیمانه تبریک می‌گوییم
+با تشکر</t>
+  </si>
+  <si>
+    <t>فرم درخواست مرخصی روزانه- فاطمي</t>
+  </si>
+  <si>
+    <t>فرم درخواست مرخصی - زارعيان</t>
+  </si>
+  <si>
+    <t>از تاریخ</t>
+  </si>
+  <si>
+    <t>تا تاریخ</t>
+  </si>
+  <si>
+    <t>1402/07/24</t>
+  </si>
+  <si>
+    <t>1402/07/26</t>
+  </si>
+  <si>
+    <t>1402/07/09</t>
+  </si>
+  <si>
+    <t>1402/07/12</t>
+  </si>
+  <si>
+    <t>توضیحات</t>
   </si>
 </sst>
 </file>
@@ -460,13 +713,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -752,13 +1009,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -803,7 +1060,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -811,7 +1068,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -819,7 +1076,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -827,10 +1084,40 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -840,160 +1127,625 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="10" width="31" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="35.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="29" customWidth="1"/>
+    <col min="16" max="17" width="24.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="24.140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="24.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="27.85546875" customWidth="1"/>
+    <col min="22" max="22" width="28.85546875" customWidth="1"/>
+    <col min="23" max="23" width="29.140625" customWidth="1"/>
+    <col min="24" max="24" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="25" customWidth="1"/>
+    <col min="26" max="26" width="24.5703125" customWidth="1"/>
+    <col min="27" max="27" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="b">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="T4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
+      <c r="V4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="b">
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="b">
+      <c r="S5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="T5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>123</v>
+      <c r="V7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X8" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1004,9 +1756,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1016,76 +1768,79 @@
     <col min="2" max="2" width="60" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1095,10 +1850,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1864,7 @@
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" customWidth="1"/>
     <col min="9" max="9" width="34.28515625" customWidth="1"/>
     <col min="10" max="12" width="31" style="2" customWidth="1"/>
@@ -1127,497 +1882,563 @@
     <col min="25" max="25" width="20.85546875" customWidth="1"/>
     <col min="26" max="26" width="43.85546875" customWidth="1"/>
     <col min="27" max="27" width="24.42578125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="28.85546875" customWidth="1"/>
+    <col min="29" max="29" width="29.140625" customWidth="1"/>
+    <col min="30" max="30" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="105" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" t="s">
         <v>27</v>
       </c>
-      <c r="U2" t="s">
-        <v>28</v>
-      </c>
       <c r="AA2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="U3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="I6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="2" t="s">
+      <c r="S6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="105" x14ac:dyDescent="0.25">
+      <c r="AD6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>51</v>
+      <c r="AD7" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1630,36 +2451,36 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1667,10 +2488,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1678,43 +2499,43 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1722,10 +2543,441 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="6" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="30.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2">
+        <v>2212</v>
+      </c>
+      <c r="E2">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2">
+        <v>3932201884</v>
+      </c>
+      <c r="H2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2">
+        <v>9124556765</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3">
+        <v>4321</v>
+      </c>
+      <c r="E3">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3">
+        <v>3920085518</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L3">
+        <v>9369997476</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4">
+        <v>6545</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4">
+        <v>157648454</v>
+      </c>
+      <c r="H4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4">
+        <v>9124385443</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="63.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
